--- a/biology/Botanique/Courge_éponge/Courge_éponge.xlsx
+++ b/biology/Botanique/Courge_éponge/Courge_éponge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Courge_%C3%A9ponge</t>
+          <t>Courge_éponge</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Luffa aegyptiaca
 La courge éponge (Luffa aegyptiaca, syn. Luffa cylindrica) est une espèce de plante à fleurs de la famille des Cucurbitaceae. C'est une plante grimpante. Cette plante est probablement originaire de l'Inde. Elle est cultivée aujourd'hui dans les régions tropicales et subtropicales du monde entier, en particulier au Japon, en Inde et en Égypte. On trouve cette courge couramment en Orient et sur tous les marchés d'outre-mer[pas clair].
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Courge_%C3%A9ponge</t>
+          <t>Courge_éponge</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le fruit a deux utilisations :
 alimentaire : Il  est cuisiné jeune comme des courgettes ou des aubergines.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Courge_%C3%A9ponge</t>
+          <t>Courge_éponge</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,11 +558,13 @@
           <t>Caractéristique et culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante herbacée se cultive en annuelle. C'est une plante grimpante qui aura besoin d'un support ou s'accrocher (tuteur, pergola, arbre ou grillage).
 Les feuilles mesurent de 15 à 30 cm de long et de large et possèdent de cinq à sept lobes. Les fleurs sont monoïques, jaunes et ont de 5 à 10 cm de diamètre.
-Les fruits cylindriques ou allongés claviformes (3 à 6 fruits par pied) mesurent de 25 à 55 cm de long à maturité avec de 6 à 12 cm de diamètre[2]. Ils peuvent se consommer comme légume très jeunes mais pour en faire des éponges, on récolte le fruit quand il est bien mûr, l'épiderme vire alors du vert au brun puis se dessèche et se détache facilement, laissant apparaître une « éponge » blanche qu'on peut facilement vider de ses graines noires en la secouant.
+Les fruits cylindriques ou allongés claviformes (3 à 6 fruits par pied) mesurent de 25 à 55 cm de long à maturité avec de 6 à 12 cm de diamètre. Ils peuvent se consommer comme légume très jeunes mais pour en faire des éponges, on récolte le fruit quand il est bien mûr, l'épiderme vire alors du vert au brun puis se dessèche et se détache facilement, laissant apparaître une « éponge » blanche qu'on peut facilement vider de ses graines noires en la secouant.
 Le semis se fait après les derniers gels (mi-mai en France). La durée de germination peut atteindre un mois, la récolte se fait à l'automne.
 </t>
         </is>
